--- a/data/output/Cheyette/VCUB_2014_01_01/synthese.xlsx
+++ b/data/output/Cheyette/VCUB_2014_01_01/synthese.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="synthese" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -128,6 +128,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -606,10 +609,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -775,7 +779,7 @@
                 <c:pt idx="2">
                   <c:v>2.9872200000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00%">
+                <c:pt idx="3" formatCode="0.000%">
                   <c:v>2.9859E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -946,7 +950,7 @@
                 <c:pt idx="2">
                   <c:v>2.94921E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000%">
                   <c:v>2.94921E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -954,25 +958,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99277056"/>
-        <c:axId val="78399744"/>
+        <c:axId val="128132992"/>
+        <c:axId val="128134528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99277056"/>
+        <c:axId val="128132992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78399744"/>
+        <c:crossAx val="128134528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78399744"/>
+        <c:axId val="128134528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +984,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99277056"/>
+        <c:crossAx val="128132992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -993,7 +997,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1321,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AM124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2080,16 +2084,16 @@
       <c r="A48">
         <v>100000</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>2.94402E-2</v>
       </c>
       <c r="C48" s="2">
         <v>2.90213E-2</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>2.9859E-2</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>2.94921E-2</v>
       </c>
     </row>
